--- a/polisci/mun/country-list.xlsx
+++ b/polisci/mun/country-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="-80" windowWidth="33460" windowHeight="23400" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="-740" windowWidth="14400" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,432 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+  <si>
+    <t>("Equatorial Guinea","Equatorial Guinea"),</t>
+  </si>
+  <si>
+    <t>("Eritrea","Eritrea"),</t>
+  </si>
+  <si>
+    <t>("Estonia","Estonia"),</t>
+  </si>
+  <si>
+    <t>("Ethiopia","Ethiopia"),</t>
+  </si>
+  <si>
+    <t>("Fiji","Fiji"),</t>
+  </si>
+  <si>
+    <t>("Finland","Finland"),</t>
+  </si>
+  <si>
+    <t>("France^","France^"),</t>
+  </si>
+  <si>
+    <t>("Gabon","Gabon"),</t>
+  </si>
+  <si>
+    <t>("Gambia","Gambia"),</t>
+  </si>
+  <si>
+    <t>("Georgia","Georgia"),</t>
+  </si>
+  <si>
+    <t>("Germany*","Germany*"),</t>
+  </si>
+  <si>
+    <t>("Afghanistan","Afghanistan"),</t>
+  </si>
+  <si>
+    <t>("Albania","Albania"),</t>
+  </si>
+  <si>
+    <t>("Algeria*","Algeria*"),</t>
+  </si>
+  <si>
+    <t>("Andorra","Andorra"),</t>
+  </si>
+  <si>
+    <t>("Bosnia and Herzegovina","Bosnia and Herzegovina"),</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>("Colombia","Colombia"),</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>("Grenada","Grenada"),</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>("Saudi Arabia*","Saudi Arabia*"),</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>("Thailand*","Thailand*"),</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>("United States^","United States^"),</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>("Uruguay*","Uruguay*"),</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>("Mongolia","Mongolia"),</t>
+  </si>
+  <si>
+    <t>("Montenegro","Montenegro"),</t>
+  </si>
+  <si>
+    <t>("Morocco~","Morocco~"),</t>
+  </si>
+  <si>
+    <t>("Mozambique","Mozambique"),</t>
+  </si>
+  <si>
+    <t>("Myanmar (Burma)","Myanmar (Burma)"),</t>
+  </si>
+  <si>
+    <t>("Namibia","Namibia"),</t>
+  </si>
+  <si>
+    <t>("Nauru","Nauru"),</t>
+  </si>
+  <si>
+    <t>("Nepal","Nepal"),</t>
+  </si>
+  <si>
+    <t>("Netherlands","Netherlands"),</t>
+  </si>
+  <si>
+    <t>("New Zealand","New Zealand"),</t>
+  </si>
+  <si>
+    <t>("Angola","Angola"),</t>
+  </si>
+  <si>
+    <t>("Antigua and Barbuda","Antigua and Barbuda"),</t>
+  </si>
+  <si>
+    <t>("Argentina^","Argentina^"),</t>
+  </si>
+  <si>
+    <t>("Armenia","Armenia"),</t>
+  </si>
+  <si>
+    <t>("Australia^","Australia^"),</t>
+  </si>
+  <si>
+    <t>("Austria","Austria"),</t>
+  </si>
+  <si>
+    <t>("Azerbaijan~","Azerbaijan~"),</t>
+  </si>
+  <si>
+    <t>("Bahamas","Bahamas"),</t>
+  </si>
+  <si>
+    <t>("Bahrain","Bahrain"),</t>
+  </si>
+  <si>
+    <t>("Bangladesh","Bangladesh"),</t>
+  </si>
+  <si>
+    <t>("Barbados","Barbados"),</t>
+  </si>
+  <si>
+    <t>("Belarus","Belarus"),</t>
+  </si>
+  <si>
+    <t>("Belgium*","Belgium*"),</t>
+  </si>
+  <si>
+    <t>("Belize","Belize"),</t>
+  </si>
+  <si>
+    <t>("Benin","Benin"),</t>
+  </si>
+  <si>
+    <t>("Bhutan","Bhutan"),</t>
+  </si>
+  <si>
+    <t>("Bolivia","Bolivia"),</t>
+  </si>
+  <si>
+    <t>("Botswana","Botswana"),</t>
+  </si>
+  <si>
+    <t>("Brazil*","Brazil*"),</t>
+  </si>
+  <si>
+    <t>("Brunei Darussalam","Brunei Darussalam"),</t>
+  </si>
+  <si>
+    <t>("Bulgariai*","Bulgaria*"),</t>
+  </si>
+  <si>
+    <t>("Burkino Faso","Burkino Faso"),</t>
+  </si>
+  <si>
+    <t>("Burundi","Burundi"),</t>
+  </si>
+  <si>
+    <t>("Cambodia","Cambodia"),</t>
+  </si>
+  <si>
+    <t>("Cameroon","Cameroon"),</t>
+  </si>
+  <si>
+    <t>("Canada*","Canada*"),</t>
+  </si>
+  <si>
+    <t>("Cape Verde","Cape Verde"),</t>
+  </si>
+  <si>
+    <t>("Central African Republic","Central African Republic"),</t>
+  </si>
+  <si>
+    <t>("Chad","Chad"),</t>
+  </si>
+  <si>
+    <t>("Chile","Chile"),</t>
+  </si>
+  <si>
+    <t>("China^","China^"),</t>
+  </si>
+  <si>
+    <t>("Comoros","Comoros"),</t>
+  </si>
+  <si>
+    <t>("Republic of Congo","Republic of Congo"),</t>
+  </si>
+  <si>
+    <t>("Democratic Republic of the Congo","Democratic Republic of the Congo"),</t>
+  </si>
+  <si>
+    <t>("Costa Rica*","Costa Rica*"),</t>
+  </si>
+  <si>
+    <t>("Côte d'Ivoire","Côte d'Ivoire"),</t>
+  </si>
+  <si>
+    <t>("Croatia","Croatia"),</t>
+  </si>
+  <si>
+    <t>("Cuba*","Cuba*"),</t>
+  </si>
+  <si>
+    <t>("Cyprus","Cyprus"),</t>
+  </si>
+  <si>
+    <t>("Czech Republic","Czech Republic"),</t>
+  </si>
+  <si>
+    <t>("Denmark","Denmark"),</t>
+  </si>
+  <si>
+    <t>("Djibouti","Djibouti"),</t>
+  </si>
+  <si>
+    <t>("Dominica","Dominic"),</t>
+  </si>
+  <si>
+    <t>("Dominican Republic","Dominican Republic"),</t>
+  </si>
+  <si>
+    <t>("Ecuador","Ecuador"),</t>
+  </si>
+  <si>
+    <t>("Egypt*","Egypt*"),</t>
+  </si>
+  <si>
+    <t>("El Salvador","El Salvador"),</t>
+  </si>
+  <si>
+    <t>("Tonga","Tonga"),</t>
+  </si>
+  <si>
+    <t>("Trinidad and Tobago","Trinidad and Tobago"),</t>
+  </si>
+  <si>
+    <t>("Tunisia","Tunisia"),</t>
+  </si>
+  <si>
+    <t>("Turkey","Turkey"),</t>
+  </si>
+  <si>
+    <t>("Turkmenistan","Turkmenistan"),</t>
+  </si>
+  <si>
+    <t>("Tuvalu","Tuvalu"),</t>
+  </si>
+  <si>
+    <t>("Uganda","Uganda"),</t>
+  </si>
+  <si>
+    <t>("Ukraine","Ukraine"),</t>
+  </si>
+  <si>
+    <t>("United Arab Emirates","United Arab Emirates"),</t>
+  </si>
+  <si>
+    <t>("Ghana","Ghana"),</t>
+  </si>
+  <si>
+    <t>("Greece*","Greece*"),</t>
+  </si>
+  <si>
+    <t>("Guatemala~","Guatemala~"),</t>
+  </si>
+  <si>
+    <t>("Guinea","Guinea"),</t>
+  </si>
+  <si>
+    <t>("Guinea-Bissau","Guinea-Bissau"),</t>
+  </si>
+  <si>
+    <t>("Guyana","Guyana"),</t>
+  </si>
+  <si>
+    <t>("Haiti","Haiti"),</t>
+  </si>
+  <si>
+    <t>("Honduras","Honduras"),</t>
+  </si>
+  <si>
+    <t>("Hungary*","Hungary*"),</t>
+  </si>
+  <si>
+    <t>("Iceland","Iceland"),</t>
+  </si>
+  <si>
+    <t>("India*","India*"),</t>
+  </si>
+  <si>
+    <t>("Indonesia*","Indonesia*"),</t>
+  </si>
+  <si>
+    <t>("Iran","Iran"),</t>
+  </si>
+  <si>
+    <t>("Iraq","Iraq"),</t>
+  </si>
+  <si>
+    <t>("Ireland","Ireland"),</t>
+  </si>
+  <si>
+    <t>("Israel","Israel"),</t>
+  </si>
+  <si>
+    <t>("Italy*","Italy*"),</t>
+  </si>
+  <si>
+    <t>("Jamaica","Jamaica"),</t>
+  </si>
+  <si>
+    <t>("Japan*","Japan*"),</t>
+  </si>
+  <si>
+    <t>("Jordan","Jordan"),</t>
+  </si>
+  <si>
+    <t>("Kazakhstan","Kazakhstan"),</t>
+  </si>
+  <si>
+    <t>("Kenya","Kenya"),</t>
+  </si>
+  <si>
+    <t>("Kiribati","Kiribati"),</t>
+  </si>
+  <si>
+    <t>("Democratic People's Republic of Korea","Democratic People's Republic of Korea"),</t>
+  </si>
+  <si>
+    <t>("Republic of Korea^","Republic of Korea^"),</t>
+  </si>
+  <si>
+    <t>("Kuwait","Kuwait"),</t>
+  </si>
+  <si>
+    <t>("Kyrgyzstan","Kyrgyzstan"),</t>
+  </si>
+  <si>
+    <t>("Lao People's Democratic Republic","Lao People's Democratic Republic"),</t>
+  </si>
+  <si>
+    <t>("Lebanon","Lebanon"),</t>
+  </si>
+  <si>
+    <t>("Latvia","Latvia"),</t>
+  </si>
+  <si>
+    <t>("Lesotho","Lesotho"),</t>
+  </si>
+  <si>
+    <t>("Liberia","Liberia"),</t>
+  </si>
+  <si>
+    <t>("Libya*","Libya*"),</t>
+  </si>
+  <si>
+    <t>("Liechtenstein","Liechtenstein"),</t>
+  </si>
+  <si>
+    <t>("Lithuania","Lithuania"),</t>
+  </si>
+  <si>
+    <t>("Luxembourg~","Luxembourg~"),</t>
+  </si>
+  <si>
+    <t>("Macedonia","Macedonia"),</t>
+  </si>
+  <si>
+    <t>("Madagascar","Madagascar"),</t>
+  </si>
+  <si>
+    <t>("Malawi","Malawi"),</t>
+  </si>
+  <si>
+    <t>("Malaysia","Malaysia"),</t>
+  </si>
+  <si>
+    <t>("Maldives","Maldives"),</t>
+  </si>
+  <si>
+    <t>("Mali","Mali"),</t>
+  </si>
+  <si>
+    <t>("Malta","Malta"),</t>
+  </si>
+  <si>
+    <t>("Marshall Islands","Marshall Islands"),</t>
+  </si>
+  <si>
+    <t>("Mauritania","Mauritania"),</t>
+  </si>
+  <si>
+    <t>("Mauritius","Mauritius"),</t>
+  </si>
+  <si>
+    <t>("Mexico*","Mexico*"),</t>
+  </si>
+  <si>
+    <t>("Micronesia (Federated States of)","Micronesia (Federated States of)"),</t>
+  </si>
+  <si>
+    <t>("Republic of Moldova","Republic of Moldova"),</t>
+  </si>
+  <si>
+    <t>("Monaco","Monaco"),</t>
+  </si>
   <si>
     <t>("United Kingdom^","United Kingdom^"),</t>
   </si>
   <si>
-    <t>("United States*","United States*"),</t>
-  </si>
-  <si>
-    <t>("Uruguay^","Uruguay^"),</t>
-  </si>
-  <si>
     <t>("Uzbekistan","Uzbekistan"),</t>
   </si>
   <si>
@@ -124,9 +539,6 @@
     <t>("Sao Tome and Principe","Sao Tome and Principe"),</t>
   </si>
   <si>
-    <t>("Saudi Arabia","Saudi Arabia"),</t>
-  </si>
-  <si>
     <t>("Senegal","Senegal"),</t>
   </si>
   <si>
@@ -190,418 +602,22 @@
     <t>("Tanzania*","Tanzania*"),</t>
   </si>
   <si>
-    <t>("Thailand","Thailand"),</t>
-  </si>
-  <si>
     <t>("Timor-Leste","Timor-Leste"),</t>
   </si>
   <si>
     <t>("Togo~","Togo~"),</t>
-  </si>
-  <si>
-    <t>("Tonga","Tonga"),</t>
-  </si>
-  <si>
-    <t>("Trinidad and Tobago","Trinidad and Tobago"),</t>
-  </si>
-  <si>
-    <t>("Tunisia","Tunisia"),</t>
-  </si>
-  <si>
-    <t>("Turkey","Turkey"),</t>
-  </si>
-  <si>
-    <t>("Turkmenistan","Turkmenistan"),</t>
-  </si>
-  <si>
-    <t>("Tuvalu","Tuvalu"),</t>
-  </si>
-  <si>
-    <t>("Uganda","Uganda"),</t>
-  </si>
-  <si>
-    <t>("Ukraine","Ukraine"),</t>
-  </si>
-  <si>
-    <t>("United Arab Emirates","United Arab Emirates"),</t>
-  </si>
-  <si>
-    <t>("Ghana","Ghana"),</t>
-  </si>
-  <si>
-    <t>("Greece*","Greece*"),</t>
-  </si>
-  <si>
-    <t>("Guatemala~","Guatemala~"),</t>
-  </si>
-  <si>
-    <t>("Guinea","Guinea"),</t>
-  </si>
-  <si>
-    <t>("Guinea-Bissau","Guinea-Bissau"),</t>
-  </si>
-  <si>
-    <t>("Guyana","Guyana"),</t>
-  </si>
-  <si>
-    <t>("Haiti","Haiti"),</t>
-  </si>
-  <si>
-    <t>("Honduras","Honduras"),</t>
-  </si>
-  <si>
-    <t>("Hungary*","Hungary*"),</t>
-  </si>
-  <si>
-    <t>("Iceland","Iceland"),</t>
-  </si>
-  <si>
-    <t>("India*","India*"),</t>
-  </si>
-  <si>
-    <t>("Indonesia*","Indonesia*"),</t>
-  </si>
-  <si>
-    <t>("Iran","Iran"),</t>
-  </si>
-  <si>
-    <t>("Iraq","Iraq"),</t>
-  </si>
-  <si>
-    <t>("Ireland","Ireland"),</t>
-  </si>
-  <si>
-    <t>("Israel","Israel"),</t>
-  </si>
-  <si>
-    <t>("Italy*","Italy*"),</t>
-  </si>
-  <si>
-    <t>("Jamaica","Jamaica"),</t>
-  </si>
-  <si>
-    <t>("Japan*","Japan*"),</t>
-  </si>
-  <si>
-    <t>("Jordan","Jordan"),</t>
-  </si>
-  <si>
-    <t>("Kazakhstan","Kazakhstan"),</t>
-  </si>
-  <si>
-    <t>("Kenya","Kenya"),</t>
-  </si>
-  <si>
-    <t>("Kiribati","Kiribati"),</t>
-  </si>
-  <si>
-    <t>("Democratic People's Republic of Korea","Democratic People's Republic of Korea"),</t>
-  </si>
-  <si>
-    <t>("Republic of Korea^","Republic of Korea^"),</t>
-  </si>
-  <si>
-    <t>("Kuwait","Kuwait"),</t>
-  </si>
-  <si>
-    <t>("Kyrgyzstan","Kyrgyzstan"),</t>
-  </si>
-  <si>
-    <t>("Lao People's Democratic Republic","Lao People's Democratic Republic"),</t>
-  </si>
-  <si>
-    <t>("Lebanon","Lebanon"),</t>
-  </si>
-  <si>
-    <t>("Latvia","Latvia"),</t>
-  </si>
-  <si>
-    <t>("Lesotho","Lesotho"),</t>
-  </si>
-  <si>
-    <t>("Liberia","Liberia"),</t>
-  </si>
-  <si>
-    <t>("Libya*","Libya*"),</t>
-  </si>
-  <si>
-    <t>("Liechtenstein","Liechtenstein"),</t>
-  </si>
-  <si>
-    <t>("Lithuania","Lithuania"),</t>
-  </si>
-  <si>
-    <t>("Luxembourg~","Luxembourg~"),</t>
-  </si>
-  <si>
-    <t>("Macedonia","Macedonia"),</t>
-  </si>
-  <si>
-    <t>("Madagascar","Madagascar"),</t>
-  </si>
-  <si>
-    <t>("Malawi","Malawi"),</t>
-  </si>
-  <si>
-    <t>("Malaysia","Malaysia"),</t>
-  </si>
-  <si>
-    <t>("Maldives","Maldives"),</t>
-  </si>
-  <si>
-    <t>("Mali","Mali"),</t>
-  </si>
-  <si>
-    <t>("Malta","Malta"),</t>
-  </si>
-  <si>
-    <t>("Marshall Islands","Marshall Islands"),</t>
-  </si>
-  <si>
-    <t>("Mauritania","Mauritania"),</t>
-  </si>
-  <si>
-    <t>("Mauritius","Mauritius"),</t>
-  </si>
-  <si>
-    <t>("Mexico*","Mexico*"),</t>
-  </si>
-  <si>
-    <t>("Micronesia (Federated States of)","Micronesia (Federated States of)"),</t>
-  </si>
-  <si>
-    <t>("Republic of Moldova","Republic of Moldova"),</t>
-  </si>
-  <si>
-    <t>("Monaco","Monaco"),</t>
-  </si>
-  <si>
-    <t>("Mongolia","Mongolia"),</t>
-  </si>
-  <si>
-    <t>("Montenegro","Montenegro"),</t>
-  </si>
-  <si>
-    <t>("Morocco~","Morocco~"),</t>
-  </si>
-  <si>
-    <t>("Mozambique","Mozambique"),</t>
-  </si>
-  <si>
-    <t>("Myanmar (Burma)","Myanmar (Burma)"),</t>
-  </si>
-  <si>
-    <t>("Namibia","Namibia"),</t>
-  </si>
-  <si>
-    <t>("Nauru","Nauru"),</t>
-  </si>
-  <si>
-    <t>("Nepal","Nepal"),</t>
-  </si>
-  <si>
-    <t>("Netherlands","Netherlands"),</t>
-  </si>
-  <si>
-    <t>("New Zealand","New Zealand"),</t>
-  </si>
-  <si>
-    <t>("Angola","Angola"),</t>
-  </si>
-  <si>
-    <t>("Antigua and Barbuda","Antigua and Barbuda"),</t>
-  </si>
-  <si>
-    <t>("Argentina^","Argentina^"),</t>
-  </si>
-  <si>
-    <t>("Armenia","Armenia"),</t>
-  </si>
-  <si>
-    <t>("Australia^","Australia^"),</t>
-  </si>
-  <si>
-    <t>("Austria","Austria"),</t>
-  </si>
-  <si>
-    <t>("Azerbaijan~","Azerbaijan~"),</t>
-  </si>
-  <si>
-    <t>("Bahamas","Bahamas"),</t>
-  </si>
-  <si>
-    <t>("Bahrain","Bahrain"),</t>
-  </si>
-  <si>
-    <t>("Bangladesh","Bangladesh"),</t>
-  </si>
-  <si>
-    <t>("Barbados","Barbados"),</t>
-  </si>
-  <si>
-    <t>("Belarus","Belarus"),</t>
-  </si>
-  <si>
-    <t>("Belgium*","Belgium*"),</t>
-  </si>
-  <si>
-    <t>("Belize","Belize"),</t>
-  </si>
-  <si>
-    <t>("Benin","Benin"),</t>
-  </si>
-  <si>
-    <t>("Bhutan","Bhutan"),</t>
-  </si>
-  <si>
-    <t>("Bolivia","Bolivia"),</t>
-  </si>
-  <si>
-    <t>("Bosnia and Herzegovina","Bosnia-Herzegovina"),</t>
-  </si>
-  <si>
-    <t>("Botswana","Botswana"),</t>
-  </si>
-  <si>
-    <t>("Brazil*","Brazil*"),</t>
-  </si>
-  <si>
-    <t>("Brunei Darussalam","Brunei Darussalam"),</t>
-  </si>
-  <si>
-    <t>("Bulgariai*","Bulgaria*"),</t>
-  </si>
-  <si>
-    <t>("Burkino Faso","Burkino Faso"),</t>
-  </si>
-  <si>
-    <t>("Burundi","Burundi"),</t>
-  </si>
-  <si>
-    <t>("Cambodia","Cambodia"),</t>
-  </si>
-  <si>
-    <t>("Cameroon","Cameroon"),</t>
-  </si>
-  <si>
-    <t>("Canada*","Canada*"),</t>
-  </si>
-  <si>
-    <t>("Cape Verde","Cape Verde"),</t>
-  </si>
-  <si>
-    <t>("Central African Republic","Central African Republic"),</t>
-  </si>
-  <si>
-    <t>("Chad","Chad"),</t>
-  </si>
-  <si>
-    <t>("Chile","Chile"),</t>
-  </si>
-  <si>
-    <t>("China^","China^"),</t>
-  </si>
-  <si>
-    <t>("Colombia*","Colombia*"),</t>
-  </si>
-  <si>
-    <t>("Comoros","Comoros"),</t>
-  </si>
-  <si>
-    <t>("Republic of Congo","Republic of Congo"),</t>
-  </si>
-  <si>
-    <t>("Democratic Republic of the Congo","Democratic Republic of the Congo"),</t>
-  </si>
-  <si>
-    <t>("Costa Rica*","Costa Rica*"),</t>
-  </si>
-  <si>
-    <t>("Côte d'Ivoire","Côte d'Ivoire"),</t>
-  </si>
-  <si>
-    <t>("Croatia","Croatia"),</t>
-  </si>
-  <si>
-    <t>("Cuba*","Cuba*"),</t>
-  </si>
-  <si>
-    <t>("Cyprus","Cyprus"),</t>
-  </si>
-  <si>
-    <t>("Czech Republic","Czech Republic"),</t>
-  </si>
-  <si>
-    <t>("Denmark","Denmark"),</t>
-  </si>
-  <si>
-    <t>("Djibouti","Djibouti"),</t>
-  </si>
-  <si>
-    <t>("Dominica","Dominic"),</t>
-  </si>
-  <si>
-    <t>("Dominican Republic","Dominican Republic"),</t>
-  </si>
-  <si>
-    <t>("Ecuador","Ecuador"),</t>
-  </si>
-  <si>
-    <t>("Egypt*","Egypt*"),</t>
-  </si>
-  <si>
-    <t>("El Salvador","El Salvador"),</t>
-  </si>
-  <si>
-    <t>("Equatorial Guinea","Equatorial Guinea"),</t>
-  </si>
-  <si>
-    <t>("Eritrea","Eritrea"),</t>
-  </si>
-  <si>
-    <t>("Estonia","Estonia"),</t>
-  </si>
-  <si>
-    <t>("Ethiopia","Ethiopia"),</t>
-  </si>
-  <si>
-    <t>("Fiji","Fiji"),</t>
-  </si>
-  <si>
-    <t>("Finland","Finland"),</t>
-  </si>
-  <si>
-    <t>("France^","France^"),</t>
-  </si>
-  <si>
-    <t>("Gabon","Gabon"),</t>
-  </si>
-  <si>
-    <t>("Gambia","Gambia"),</t>
-  </si>
-  <si>
-    <t>("Georgia","Georgia"),</t>
-  </si>
-  <si>
-    <t>("Germany*","Germany*"),</t>
-  </si>
-  <si>
-    <t>("Afghanistan","Afghanistan"),</t>
-  </si>
-  <si>
-    <t>("Albania","Albania"),</t>
-  </si>
-  <si>
-    <t>("Algeria*","Algeria*"),</t>
-  </si>
-  <si>
-    <t>("Andorra","Andorra"),</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -994,7 +1010,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="16.5" customHeight="1"/>
@@ -1010,7 +1026,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
@@ -1018,7 +1034,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
@@ -1026,7 +1042,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3" t="s">
-        <v>190</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
@@ -1035,7 +1051,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
@@ -1044,7 +1060,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="3" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
@@ -1053,7 +1069,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1">
@@ -1062,7 +1078,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1">
@@ -1071,7 +1087,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
@@ -1080,7 +1096,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="3" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
@@ -1089,7 +1105,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="3" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
@@ -1098,7 +1114,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1">
@@ -1107,7 +1123,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="3" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1">
@@ -1116,7 +1132,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="3" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1">
@@ -1125,7 +1141,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="3" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
@@ -1134,7 +1150,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1">
@@ -1143,7 +1159,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1">
@@ -1152,7 +1168,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1">
@@ -1161,7 +1177,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1">
@@ -1170,7 +1186,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1">
@@ -1179,7 +1195,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1">
@@ -1188,7 +1204,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="33" customHeight="1">
@@ -1197,7 +1213,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1">
@@ -1206,7 +1222,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
@@ -1215,7 +1231,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1">
@@ -1224,7 +1240,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
@@ -1233,7 +1249,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1">
@@ -1242,7 +1258,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1">
@@ -1251,7 +1267,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="3" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1">
@@ -1260,7 +1276,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1">
@@ -1269,7 +1285,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1">
@@ -1278,7 +1294,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1">
@@ -1287,7 +1303,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="33" customHeight="1">
@@ -1296,7 +1312,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="3" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1">
@@ -1305,7 +1321,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" customHeight="1">
@@ -1314,7 +1330,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1">
@@ -1323,7 +1339,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1">
@@ -1332,7 +1348,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="3" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1">
@@ -1341,7 +1357,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="3" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" customHeight="1">
@@ -1350,7 +1366,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="3" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="33" customHeight="1">
@@ -1359,7 +1375,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" customHeight="1">
@@ -1368,7 +1384,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" customHeight="1">
@@ -1377,7 +1393,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="3" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" customHeight="1">
@@ -1386,7 +1402,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="3" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" customHeight="1">
@@ -1395,7 +1411,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="3" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" customHeight="1">
@@ -1404,7 +1420,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="3" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" customHeight="1">
@@ -1413,7 +1429,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="3" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1">
@@ -1422,7 +1438,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="3" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1">
@@ -1431,7 +1447,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="3" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18" customHeight="1">
@@ -1440,7 +1456,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="3" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1">
@@ -1449,7 +1465,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="3" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" customHeight="1">
@@ -1458,7 +1474,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="3" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18" customHeight="1">
@@ -1467,7 +1483,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="3" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" customHeight="1">
@@ -1476,7 +1492,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="3" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18" customHeight="1">
@@ -1485,7 +1501,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="3" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18" customHeight="1">
@@ -1494,7 +1510,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="3" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18" customHeight="1">
@@ -1503,7 +1519,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="3" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18" customHeight="1">
@@ -1512,7 +1528,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="3" t="s">
-        <v>180</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1">
@@ -1521,7 +1537,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="3" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" customHeight="1">
@@ -1530,7 +1546,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="3" t="s">
-        <v>182</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18" customHeight="1">
@@ -1539,7 +1555,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="3" t="s">
-        <v>183</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18" customHeight="1">
@@ -1548,7 +1564,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="3" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18" customHeight="1">
@@ -1557,7 +1573,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18" customHeight="1">
@@ -1566,7 +1582,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="3" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="18" customHeight="1">
@@ -1575,7 +1591,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="3" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" customHeight="1">
@@ -1584,7 +1600,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="3" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="18" customHeight="1">
@@ -1593,7 +1609,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="18" customHeight="1">
@@ -1602,7 +1618,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="3" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="18" customHeight="1">
@@ -1611,7 +1627,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1">
@@ -1620,7 +1636,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1">
@@ -1629,7 +1645,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" customHeight="1">
@@ -1638,7 +1654,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="18" customHeight="1">
@@ -1647,7 +1663,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="3" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="18" customHeight="1">
@@ -1656,7 +1672,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="18" customHeight="1">
@@ -1665,7 +1681,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18" customHeight="1">
@@ -1674,7 +1690,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="18" customHeight="1">
@@ -1683,7 +1699,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="3" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" customHeight="1">
@@ -1692,7 +1708,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="3" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="18" customHeight="1">
@@ -1701,7 +1717,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="3" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="18" customHeight="1">
@@ -1710,7 +1726,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1">
@@ -1719,7 +1735,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="18" customHeight="1">
@@ -1728,7 +1744,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="18" customHeight="1">
@@ -1737,7 +1753,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" customHeight="1">
@@ -1746,7 +1762,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="3" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="18" customHeight="1">
@@ -1755,7 +1771,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="3" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="18" customHeight="1">
@@ -1764,7 +1780,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="3" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="18" customHeight="1">
@@ -1773,7 +1789,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="3" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="18" customHeight="1">
@@ -1782,7 +1798,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="18" customHeight="1">
@@ -1791,25 +1807,25 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="33" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="18" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="18" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="33" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="3" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1">
@@ -1818,7 +1834,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="3" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="18" customHeight="1">
@@ -1827,16 +1843,16 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="33" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="18" customHeight="1">
@@ -1845,7 +1861,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="18" customHeight="1">
@@ -1854,7 +1870,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="3" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="18" customHeight="1">
@@ -1863,7 +1879,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="3" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="18" customHeight="1">
@@ -1872,7 +1888,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="3" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="18" customHeight="1">
@@ -1881,7 +1897,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18" customHeight="1">
@@ -1890,7 +1906,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="3" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="18" customHeight="1">
@@ -1899,7 +1915,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18" customHeight="1">
@@ -1908,7 +1924,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1">
@@ -1917,7 +1933,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1">
@@ -1926,7 +1942,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="3" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="18" customHeight="1">
@@ -1935,7 +1951,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="3" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18" customHeight="1">
@@ -1944,7 +1960,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="3" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="18" customHeight="1">
@@ -1953,7 +1969,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="18" customHeight="1">
@@ -1962,7 +1978,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="3" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18" customHeight="1">
@@ -1971,7 +1987,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="3" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="18" customHeight="1">
@@ -1980,7 +1996,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="3" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18" customHeight="1">
@@ -1989,7 +2005,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="18" customHeight="1">
@@ -1998,7 +2014,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="18" customHeight="1">
@@ -2007,7 +2023,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="33" customHeight="1">
@@ -2016,7 +2032,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="3" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="18" customHeight="1">
@@ -2025,7 +2041,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="3" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="18" customHeight="1">
@@ -2034,7 +2050,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="3" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="18" customHeight="1">
@@ -2043,7 +2059,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="3" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="18" customHeight="1">
@@ -2052,7 +2068,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="3" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="18" customHeight="1">
@@ -2061,7 +2077,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="3" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="18" customHeight="1">
@@ -2070,7 +2086,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="3" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="18" customHeight="1">
@@ -2079,7 +2095,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="3" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="18" customHeight="1">
@@ -2088,7 +2104,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="3" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="18" customHeight="1">
@@ -2097,7 +2113,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="3" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="18" customHeight="1">
@@ -2106,7 +2122,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="3" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1">
@@ -2115,7 +2131,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="3" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="18" customHeight="1">
@@ -2124,7 +2140,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="3" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="18" customHeight="1">
@@ -2133,7 +2149,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="3" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="18" customHeight="1">
@@ -2142,7 +2158,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="3" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="18" customHeight="1">
@@ -2151,7 +2167,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="3" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="18" customHeight="1">
@@ -2160,7 +2176,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="3" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="18" customHeight="1">
@@ -2169,7 +2185,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="18" customHeight="1">
@@ -2178,7 +2194,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="3" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18" customHeight="1">
@@ -2187,7 +2203,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="3" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="18" customHeight="1">
@@ -2196,7 +2212,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="3" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="18" customHeight="1">
@@ -2205,7 +2221,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="3" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1">
@@ -2214,7 +2230,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="3" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="18" customHeight="1">
@@ -2223,7 +2239,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="3" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="18" customHeight="1">
@@ -2232,7 +2248,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="3" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="18" customHeight="1">
@@ -2241,7 +2257,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="3" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="18" customHeight="1">
@@ -2250,7 +2266,7 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="3" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="18" customHeight="1">
@@ -2259,7 +2275,7 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="3" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="18" customHeight="1">
@@ -2268,7 +2284,7 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="3" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="18" customHeight="1">
@@ -2277,7 +2293,7 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="3" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="18" customHeight="1">
@@ -2286,7 +2302,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="3" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="18" customHeight="1">
@@ -2295,7 +2311,7 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="3" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="18" customHeight="1">
@@ -2304,7 +2320,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="3" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="33" customHeight="1">
@@ -2313,7 +2329,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="3" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="18" customHeight="1">
@@ -2322,7 +2338,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="3" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="18" customHeight="1">
@@ -2331,7 +2347,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="3" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="18" customHeight="1">
@@ -2340,7 +2356,7 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="3" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="18" customHeight="1">
@@ -2349,7 +2365,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="18" customHeight="1">
@@ -2358,7 +2374,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="3" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="18" customHeight="1">
@@ -2367,7 +2383,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="3" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="18" customHeight="1">
@@ -2376,7 +2392,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="18" customHeight="1">
@@ -2385,7 +2401,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="3" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="18" customHeight="1">
@@ -2394,7 +2410,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="3" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="18" customHeight="1">
@@ -2403,7 +2419,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="3" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1">
@@ -2412,7 +2428,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="3" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="18" customHeight="1">
@@ -2421,7 +2437,7 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="3" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="18" customHeight="1">
@@ -2430,7 +2446,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="3" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="18" customHeight="1">
@@ -2439,7 +2455,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="3" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="18" customHeight="1">
@@ -2448,7 +2464,7 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="3" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18" customHeight="1">
@@ -2457,7 +2473,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="3" t="s">
-        <v>46</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="18" customHeight="1">
@@ -2466,7 +2482,7 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="3" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="18" customHeight="1">
@@ -2475,7 +2491,7 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="3" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="18" customHeight="1">
@@ -2484,7 +2500,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="3" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="18" customHeight="1">
@@ -2493,7 +2509,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="3" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="18" customHeight="1">
@@ -2502,7 +2518,7 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="3" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1">
@@ -2511,7 +2527,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="3" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="18" customHeight="1">
@@ -2520,7 +2536,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="3" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="18" customHeight="1">
@@ -2529,7 +2545,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="3" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="33" customHeight="1">
@@ -2538,7 +2554,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="3" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="18" customHeight="1">
@@ -2547,7 +2563,7 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="18" customHeight="1">
@@ -2556,7 +2572,7 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="3" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="18" customHeight="1">
@@ -2565,7 +2581,7 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="3" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="18" customHeight="1">
@@ -2574,7 +2590,7 @@
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="3" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="18" customHeight="1">
@@ -2583,7 +2599,7 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="18" customHeight="1">
@@ -2592,7 +2608,7 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="18" customHeight="1">
@@ -2601,7 +2617,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1">
@@ -2610,7 +2626,7 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="18" customHeight="1">
@@ -2619,7 +2635,7 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="18" customHeight="1">
@@ -2628,7 +2644,7 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="18" customHeight="1">
@@ -2637,7 +2653,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="18" customHeight="1">
@@ -2646,7 +2662,7 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="33" customHeight="1">
@@ -2655,7 +2671,7 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="3" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="33" customHeight="1">
@@ -2664,7 +2680,7 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="18" customHeight="1">
@@ -2673,7 +2689,7 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="18" customHeight="1">
@@ -2682,7 +2698,7 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="3" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="18" customHeight="1">
@@ -2691,7 +2707,7 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="3" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="18" customHeight="1">
@@ -2700,7 +2716,7 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="3" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1">
@@ -2709,7 +2725,7 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="3" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="18" customHeight="1">
@@ -2718,7 +2734,7 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="3" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="18" customHeight="1">
@@ -2727,7 +2743,7 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="3" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="18" customHeight="1">
@@ -2736,12 +2752,14 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="3" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2920,6 +2938,7 @@
       <c r="F20" s="2"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
